--- a/Templates/CodeCovenantType.xlsx
+++ b/Templates/CodeCovenantType.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -68,7 +68,7 @@
     <t>Dropdown (Covenant Group)</t>
   </si>
   <si>
-    <t>CodeCovenantType.ParentCodeCovenantGroupID</t>
+    <t>CodeCovenantType.ParentID</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
     <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
